--- a/TestDataXls/add_tutor.xlsx
+++ b/TestDataXls/add_tutor.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E7E91C-A78C-49D5-A135-48CB6BE77F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reassign" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>password</t>
   </si>
@@ -74,12 +75,18 @@
   </si>
   <si>
     <t>tutor7@netkk.com</t>
+  </si>
+  <si>
+    <t>tutor50@nkt.com</t>
+  </si>
+  <si>
+    <t>normal23@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h&quot;:&quot;mm"/>
   </numFmts>
@@ -141,7 +148,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -203,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +243,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,6 +295,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,29 +487,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" customWidth="1"/>
-    <col min="5" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="16" width="16.85546875" customWidth="1"/>
-    <col min="17" max="18" width="19.5703125" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="28.28515625" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
+    <col min="5" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="16" width="16.88671875" customWidth="1"/>
+    <col min="17" max="18" width="19.5546875" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" style="1"/>
+    <col min="20" max="20" width="28.33203125" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -532,12 +573,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -564,17 +605,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -584,7 +647,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -594,7 +657,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -604,7 +667,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I8" s="3"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -614,7 +677,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -624,7 +687,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -634,7 +697,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -644,7 +707,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I12" s="3"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -654,7 +717,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -664,7 +727,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="3"/>
@@ -676,7 +739,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="3"/>
@@ -688,379 +751,383 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:9" x14ac:dyDescent="0.3">
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:9" x14ac:dyDescent="0.3">
       <c r="I88" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="G2" r:id="rId4"/>
-    <hyperlink ref="D3" r:id="rId5"/>
-    <hyperlink ref="E3" r:id="rId6"/>
-    <hyperlink ref="G3" r:id="rId7"/>
-    <hyperlink ref="F3" r:id="rId8"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{2E6A042C-DEFF-4A78-AA1A-7D245A552492}"/>
+    <hyperlink ref="E4" r:id="rId10" xr:uid="{E09BB959-3CA3-4D42-89BB-43E516D099D4}"/>
+    <hyperlink ref="G4" r:id="rId11" xr:uid="{43A2ABD8-DA1A-4905-9514-D610F101739D}"/>
+    <hyperlink ref="F4" r:id="rId12" xr:uid="{7FB838ED-B0B6-48A3-A3BD-FD5E6CC16A35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/TestDataXls/add_tutor.xlsx
+++ b/TestDataXls/add_tutor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E7E91C-A78C-49D5-A135-48CB6BE77F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CE0BF2-A543-4CDF-8045-27DEC8CD34BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>tutor50@nkt.com</t>
   </si>
   <si>
-    <t>normal23@gmail.com</t>
+    <t>normal30@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:S88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
